--- a/files/users.xlsx
+++ b/files/users.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Sno.</t>
   </si>
@@ -41,6 +41,18 @@
   </si>
   <si>
     <t>Shubham More: 100; Dev: 100</t>
+  </si>
+  <si>
+    <t>misal pav</t>
+  </si>
+  <si>
+    <t>PERCENTAGE</t>
+  </si>
+  <si>
+    <t>Shubham More: 80; Dev: 20</t>
+  </si>
+  <si>
+    <t>puri bhaji</t>
   </si>
 </sst>
 </file>
@@ -417,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -464,6 +476,40 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/files/users.xlsx
+++ b/files/users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="myexpense" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="overall-expense" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -31,7 +31,7 @@
     <t>Shares</t>
   </si>
   <si>
-    <t>vada pav</t>
+    <t>pav bhaji</t>
   </si>
   <si>
     <t>Shubham More</t>
@@ -40,19 +40,19 @@
     <t>EQUAL</t>
   </si>
   <si>
-    <t>Shubham More: 100; Dev: 100</t>
-  </si>
-  <si>
-    <t>misal pav</t>
+    <t>Shubham More: 50; Dev: 50</t>
   </si>
   <si>
     <t>PERCENTAGE</t>
   </si>
   <si>
-    <t>Shubham More: 80; Dev: 20</t>
-  </si>
-  <si>
-    <t>puri bhaji</t>
+    <t>Shubham More: 60; Dev: 140</t>
+  </si>
+  <si>
+    <t>EXACT</t>
+  </si>
+  <si>
+    <t>Shubham More: 45; Dev: 55</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -478,24 +478,24 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -504,10 +504,10 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
